--- a/RUDN/Importance/Varible_reg_in_South America.xlsx
+++ b/RUDN/Importance/Varible_reg_in_South America.xlsx
@@ -14,870 +14,1221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
   <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Urban poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
     <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
   </si>
   <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Urban poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care of at least four visits (% of pregnant women)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
     <t>Own-account workers, female (% of females employed)</t>
   </si>
   <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
   </si>
   <si>
     <t>Female population 50-54</t>
   </si>
   <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Master's or equivalent, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Low-birthweight babies (% of births)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>ARI treatment (% of children under 5 taken to a health provider)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
   </si>
   <si>
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, female (%) (cumulative)</t>
+    <t>Urban population (% of total)</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:B406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1251,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01791713386774063</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1259,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01567749120295048</v>
+        <v>0.02531250007450581</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1267,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01455767080187798</v>
+        <v>0.02281250059604645</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1275,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01455767080187798</v>
+        <v>0.02281250059604645</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1283,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0123180290684104</v>
+        <v>0.01999999955296516</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1291,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01119820866733789</v>
+        <v>0.0146874999627471</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1299,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01119820866733789</v>
+        <v>0.01281249988824129</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1307,7 +1658,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01119820866733789</v>
+        <v>0.01250000018626451</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1315,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01007838733494282</v>
+        <v>0.01125000044703484</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1323,7 +1674,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01007838733494282</v>
+        <v>0.009999999776482582</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1331,7 +1682,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01007838733494282</v>
+        <v>0.00937500037252903</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1339,7 +1690,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.008958566933870316</v>
+        <v>0.00937500037252903</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1347,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.008958566933870316</v>
+        <v>0.009062499739229679</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1355,7 +1706,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.008958566933870316</v>
+        <v>0.008437500335276127</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1363,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.008958566933870316</v>
+        <v>0.008124999701976776</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1371,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.008958566933870316</v>
+        <v>0.008124999701976776</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1379,7 +1730,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.008958566933870316</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1387,7 +1738,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.008958566933870316</v>
+        <v>0.0078125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1395,7 +1746,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.008958566933870316</v>
+        <v>0.007499999832361937</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1403,7 +1754,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.008958566933870316</v>
+        <v>0.007499999832361937</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1411,7 +1762,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.008958566933870316</v>
+        <v>0.007499999832361937</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1419,7 +1770,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.008958566933870316</v>
+        <v>0.007499999832361937</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1427,7 +1778,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.008958566933870316</v>
+        <v>0.007499999832361937</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1435,7 +1786,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.008958566933870316</v>
+        <v>0.00718750013038516</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1443,7 +1794,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.007838745601475239</v>
+        <v>0.006874999962747097</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1451,7 +1802,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.007838745601475239</v>
+        <v>0.006562499795109034</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1459,7 +1810,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.007838745601475239</v>
+        <v>0.006562499795109034</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1467,7 +1818,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.007838745601475239</v>
+        <v>0.006562499795109034</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1475,7 +1826,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.007838745601475239</v>
+        <v>0.006250000093132257</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1483,7 +1834,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.007838745601475239</v>
+        <v>0.005937499925494194</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1491,7 +1842,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.007838745601475239</v>
+        <v>0.005937499925494194</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1499,7 +1850,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.007838745601475239</v>
+        <v>0.005937499925494194</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1507,7 +1858,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.007838745601475239</v>
+        <v>0.005937499925494194</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1515,7 +1866,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.006718925200402737</v>
+        <v>0.005937499925494194</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1523,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.006718925200402737</v>
+        <v>0.005312500055879354</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1531,7 +1882,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.006718925200402737</v>
+        <v>0.004999999888241291</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1539,7 +1890,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.006718925200402737</v>
+        <v>0.004999999888241291</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1547,7 +1898,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.006718925200402737</v>
+        <v>0.004999999888241291</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1555,7 +1906,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.006718925200402737</v>
+        <v>0.004999999888241291</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1563,7 +1914,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.006718925200402737</v>
+        <v>0.004687500186264515</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1571,7 +1922,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.005599104333668947</v>
+        <v>0.004687500186264515</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1579,7 +1930,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.005599104333668947</v>
+        <v>0.004687500186264515</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1587,7 +1938,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.005599104333668947</v>
+        <v>0.004687500186264515</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1595,7 +1946,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.005599104333668947</v>
+        <v>0.004687500186264515</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1603,7 +1954,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.005599104333668947</v>
+        <v>0.004687500186264515</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1611,7 +1962,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.005599104333668947</v>
+        <v>0.004687500186264515</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1619,7 +1970,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.005599104333668947</v>
+        <v>0.004687500186264515</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1627,7 +1978,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.005599104333668947</v>
+        <v>0.004687500186264515</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1635,7 +1986,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.005599104333668947</v>
+        <v>0.004375000018626451</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1643,7 +1994,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.005599104333668947</v>
+        <v>0.004375000018626451</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1651,7 +2002,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.005599104333668947</v>
+        <v>0.004375000018626451</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1659,7 +2010,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.005599104333668947</v>
+        <v>0.004375000018626451</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1667,7 +2018,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.005599104333668947</v>
+        <v>0.004375000018626451</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1675,7 +2026,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.005599104333668947</v>
+        <v>0.004375000018626451</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1683,7 +2034,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.005599104333668947</v>
+        <v>0.004375000018626451</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1691,7 +2042,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.005599104333668947</v>
+        <v>0.004375000018626451</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1699,7 +2050,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.005599104333668947</v>
+        <v>0.004375000018626451</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1707,7 +2058,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.005599104333668947</v>
+        <v>0.004375000018626451</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1715,7 +2066,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.005599104333668947</v>
+        <v>0.004375000018626451</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1723,7 +2074,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.005599104333668947</v>
+        <v>0.004062499850988388</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1731,7 +2082,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.005599104333668947</v>
+        <v>0.004062499850988388</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1739,7 +2090,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.004479283466935158</v>
+        <v>0.004062499850988388</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1747,7 +2098,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.004479283466935158</v>
+        <v>0.004062499850988388</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1755,7 +2106,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.004479283466935158</v>
+        <v>0.004062499850988388</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1763,7 +2114,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.004479283466935158</v>
+        <v>0.004062499850988388</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1771,7 +2122,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.004479283466935158</v>
+        <v>0.004062499850988388</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1779,7 +2130,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.004479283466935158</v>
+        <v>0.004062499850988388</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1787,7 +2138,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.004479283466935158</v>
+        <v>0.004062499850988388</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1795,7 +2146,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.004479283466935158</v>
+        <v>0.004062499850988388</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1803,7 +2154,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1811,7 +2162,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1819,7 +2170,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1827,7 +2178,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1835,7 +2186,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1843,7 +2194,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1851,7 +2202,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1859,7 +2210,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1867,7 +2218,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1875,7 +2226,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1883,7 +2234,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1891,7 +2242,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.004479283466935158</v>
+        <v>0.003749999916180968</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1899,7 +2250,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1907,7 +2258,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1915,7 +2266,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1923,7 +2274,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1931,7 +2282,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1939,7 +2290,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1947,7 +2298,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1955,7 +2306,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1963,7 +2314,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1971,7 +2322,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1979,7 +2330,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1987,7 +2338,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1995,7 +2346,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2003,7 +2354,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.003359462600201368</v>
+        <v>0.003437499981373549</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2011,7 +2362,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.003359462600201368</v>
+        <v>0.003125000046566129</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2019,7 +2370,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.003359462600201368</v>
+        <v>0.003125000046566129</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2027,7 +2378,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.003359462600201368</v>
+        <v>0.003125000046566129</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2035,7 +2386,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.003359462600201368</v>
+        <v>0.003125000046566129</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2043,7 +2394,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.003359462600201368</v>
+        <v>0.003125000046566129</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2051,7 +2402,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.003359462600201368</v>
+        <v>0.003125000046566129</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2059,7 +2410,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.003359462600201368</v>
+        <v>0.003125000046566129</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2067,7 +2418,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.003359462600201368</v>
+        <v>0.003125000046566129</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2075,7 +2426,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.003359462600201368</v>
+        <v>0.003125000046566129</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2083,7 +2434,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2091,7 +2442,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2099,7 +2450,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2107,7 +2458,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2115,7 +2466,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2123,7 +2474,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2131,7 +2482,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2139,7 +2490,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2147,7 +2498,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2155,7 +2506,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2163,7 +2514,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2171,7 +2522,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2179,7 +2530,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.003359462600201368</v>
+        <v>0.002812500111758709</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2187,7 +2538,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.003359462600201368</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2195,7 +2546,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.003359462600201368</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2203,7 +2554,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.003359462600201368</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2211,7 +2562,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.003359462600201368</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2219,7 +2570,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.003359462600201368</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2227,7 +2578,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.003359462600201368</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2235,7 +2586,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.003359462600201368</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2243,7 +2594,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.003359462600201368</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2251,7 +2602,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.003359462600201368</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2259,7 +2610,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.002239641733467579</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2267,7 +2618,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.002239641733467579</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2275,7 +2626,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.002239641733467579</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2283,7 +2634,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.002239641733467579</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2291,7 +2642,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.002239641733467579</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2299,7 +2650,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.002239641733467579</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2307,7 +2658,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.002239641733467579</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2315,7 +2666,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.002239641733467579</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2323,7 +2674,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.002239641733467579</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2331,7 +2682,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.002239641733467579</v>
+        <v>0.002499999944120646</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2339,7 +2690,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2347,7 +2698,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2355,7 +2706,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2363,7 +2714,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2371,7 +2722,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2379,7 +2730,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2387,7 +2738,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2395,7 +2746,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2403,7 +2754,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2411,7 +2762,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2419,7 +2770,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2427,7 +2778,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2435,7 +2786,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2443,7 +2794,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2451,7 +2802,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2459,7 +2810,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2467,7 +2818,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2475,7 +2826,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2483,7 +2834,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2491,7 +2842,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2499,7 +2850,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2507,7 +2858,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2515,7 +2866,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2523,7 +2874,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.002239641733467579</v>
+        <v>0.002187500009313226</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2531,7 +2882,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2539,7 +2890,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2547,7 +2898,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2555,7 +2906,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2563,7 +2914,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2571,7 +2922,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2579,7 +2930,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2587,7 +2938,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2595,7 +2946,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2603,7 +2954,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2611,7 +2962,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2619,7 +2970,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2627,7 +2978,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2635,7 +2986,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2643,7 +2994,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2651,7 +3002,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2659,7 +3010,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2667,7 +3018,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2675,7 +3026,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2683,7 +3034,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2691,7 +3042,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2699,7 +3050,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2707,7 +3058,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2715,7 +3066,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.002239641733467579</v>
+        <v>0.001874999958090484</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2723,7 +3074,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2731,7 +3082,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2739,7 +3090,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2747,7 +3098,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2755,7 +3106,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2763,7 +3114,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2771,7 +3122,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2779,7 +3130,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2787,7 +3138,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2795,7 +3146,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2803,7 +3154,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2811,7 +3162,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2819,7 +3170,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2827,7 +3178,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2835,7 +3186,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2843,7 +3194,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2851,7 +3202,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2859,7 +3210,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2867,7 +3218,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2875,7 +3226,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.002239641733467579</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2883,7 +3234,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.001119820866733789</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2891,7 +3242,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.001119820866733789</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2899,7 +3250,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.001119820866733789</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2907,7 +3258,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.001119820866733789</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2915,7 +3266,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.001119820866733789</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2923,7 +3274,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.001119820866733789</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2931,7 +3282,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.001119820866733789</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2939,7 +3290,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.001119820866733789</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2947,7 +3298,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.001119820866733789</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2955,7 +3306,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.001119820866733789</v>
+        <v>0.001562500023283064</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2963,7 +3314,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2971,7 +3322,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2979,7 +3330,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2987,7 +3338,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2995,7 +3346,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3003,7 +3354,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3011,7 +3362,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3019,7 +3370,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3027,7 +3378,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3035,7 +3386,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3043,7 +3394,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3051,7 +3402,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3059,7 +3410,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3067,7 +3418,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3075,7 +3426,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3083,7 +3434,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3091,7 +3442,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3099,7 +3450,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3107,7 +3458,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3115,7 +3466,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3123,7 +3474,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3131,7 +3482,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3139,7 +3490,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3147,7 +3498,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3155,7 +3506,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3163,7 +3514,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3171,7 +3522,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3179,7 +3530,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3187,7 +3538,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3195,7 +3546,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3203,7 +3554,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3211,7 +3562,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3219,7 +3570,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3227,7 +3578,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3235,7 +3586,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3243,7 +3594,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3251,7 +3602,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3259,7 +3610,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3267,7 +3618,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.001119820866733789</v>
+        <v>0.001249999972060323</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3275,7 +3626,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3283,7 +3634,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3291,7 +3642,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3299,7 +3650,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3307,7 +3658,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3315,7 +3666,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3323,7 +3674,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3331,7 +3682,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3339,7 +3690,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3347,7 +3698,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3355,7 +3706,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3363,7 +3714,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3371,7 +3722,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3379,7 +3730,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3387,7 +3738,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3395,7 +3746,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3403,7 +3754,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3411,7 +3762,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3419,7 +3770,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3427,7 +3778,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3435,7 +3786,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3443,7 +3794,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3451,7 +3802,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3459,7 +3810,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3467,7 +3818,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3475,7 +3826,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3483,7 +3834,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3491,7 +3842,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3499,7 +3850,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3507,7 +3858,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3515,7 +3866,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3523,7 +3874,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3531,7 +3882,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3539,7 +3890,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3547,7 +3898,943 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.001119820866733789</v>
+        <v>0.0009374999790452421</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>0.0009374999790452421</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>0.0009374999790452421</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>0.0009374999790452421</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>0.0006249999860301614</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>0.0003124999930150807</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>0.0003124999930150807</v>
       </c>
     </row>
   </sheetData>
